--- a/Unity/Assets/Config/Excel/ExpConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ExpConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="18465" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="ExpProto" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,25 +83,17 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -217,6 +209,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -555,152 +561,157 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1052,1044 +1063,1144 @@
   <sheetPr/>
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="6.625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="21.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="5">
+    <row r="4" s="3" customFormat="1" spans="2:4">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="str">
+      <c r="C4" s="8" t="str">
         <f>_xlfn.CONCAT(B4,"-",B5,"级经验值")</f>
         <v>1-2级经验值</v>
       </c>
-      <c r="D4" s="5">
-        <f>B4*10000+10000</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="5">
+      <c r="D4" s="4">
+        <f>B4*100+100</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="2:4">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="str">
+      <c r="C5" s="8" t="str">
         <f>_xlfn.CONCAT(B5,"-",B6,"级经验值")</f>
         <v>2-3级经验值</v>
       </c>
-      <c r="D5" s="5">
-        <f>B5*10000+10000</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="2:4">
-      <c r="B6" s="5">
+      <c r="D5" s="4">
+        <f t="shared" ref="D5:D36" si="0">B5*100+100</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" spans="2:4">
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="str">
+      <c r="C6" s="8" t="str">
         <f>_xlfn.CONCAT(B6,"-",B7,"级经验值")</f>
         <v>3-4级经验值</v>
       </c>
-      <c r="D6" s="5">
-        <f>B6*10000+10000</f>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5">
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="str">
+      <c r="C7" s="8" t="str">
         <f>_xlfn.CONCAT(B7,"-",B8,"级经验值")</f>
         <v>4-5级经验值</v>
       </c>
-      <c r="D7" s="5">
-        <f>B7*10000+10000</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="5">
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="2:4">
+      <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="str">
-        <f t="shared" ref="C8:C40" si="0">_xlfn.CONCAT(B8,"-",B9,"级经验值")</f>
+      <c r="C8" s="8" t="str">
+        <f t="shared" ref="C8:C40" si="1">_xlfn.CONCAT(B8,"-",B9,"级经验值")</f>
         <v>5-6级经验值</v>
       </c>
-      <c r="D8" s="5">
-        <f t="shared" ref="D8:D40" si="1">B8*10000+10000</f>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="5">
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="2:4">
+      <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C9" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>6-7级经验值</v>
       </c>
-      <c r="D9" s="5">
-        <f t="shared" si="1"/>
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="5">
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="2:4">
+      <c r="B10" s="4">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C10" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>7-8级经验值</v>
       </c>
-      <c r="D10" s="5">
-        <f t="shared" si="1"/>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="5">
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="2:4">
+      <c r="B11" s="4">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C11" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>8-9级经验值</v>
       </c>
-      <c r="D11" s="5">
-        <f t="shared" si="1"/>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="5">
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="2:4">
+      <c r="B12" s="4">
         <v>9</v>
       </c>
-      <c r="C12" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C12" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>9-10级经验值</v>
       </c>
-      <c r="D12" s="5">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="5">
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="2:4">
+      <c r="B13" s="4">
         <v>10</v>
       </c>
-      <c r="C13" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C13" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>10-11级经验值</v>
       </c>
-      <c r="D13" s="5">
-        <f t="shared" si="1"/>
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="5">
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="2:4">
+      <c r="B14" s="4">
         <v>11</v>
       </c>
-      <c r="C14" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C14" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>11-12级经验值</v>
       </c>
-      <c r="D14" s="5">
-        <f t="shared" si="1"/>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="5">
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="2:4">
+      <c r="B15" s="4">
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C15" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>12-13级经验值</v>
       </c>
-      <c r="D15" s="5">
-        <f t="shared" si="1"/>
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="5">
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="2:4">
+      <c r="B16" s="4">
         <v>13</v>
       </c>
-      <c r="C16" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C16" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>13-14级经验值</v>
       </c>
-      <c r="D16" s="5">
-        <f t="shared" si="1"/>
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="5">
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="2:4">
+      <c r="B17" s="4">
         <v>14</v>
       </c>
-      <c r="C17" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C17" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>14-15级经验值</v>
       </c>
-      <c r="D17" s="5">
-        <f t="shared" si="1"/>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="5">
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="2:4">
+      <c r="B18" s="4">
         <v>15</v>
       </c>
-      <c r="C18" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C18" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>15-16级经验值</v>
       </c>
-      <c r="D18" s="5">
-        <f t="shared" si="1"/>
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="5">
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="2:4">
+      <c r="B19" s="4">
         <v>16</v>
       </c>
-      <c r="C19" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C19" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>16-17级经验值</v>
       </c>
-      <c r="D19" s="5">
-        <f t="shared" si="1"/>
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="5">
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="2:4">
+      <c r="B20" s="4">
         <v>17</v>
       </c>
-      <c r="C20" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C20" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>17-18级经验值</v>
       </c>
-      <c r="D20" s="5">
-        <f t="shared" si="1"/>
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="5">
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="2:4">
+      <c r="B21" s="4">
         <v>18</v>
       </c>
-      <c r="C21" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C21" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>18-19级经验值</v>
       </c>
-      <c r="D21" s="5">
-        <f t="shared" si="1"/>
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="5">
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="2:4">
+      <c r="B22" s="4">
         <v>19</v>
       </c>
-      <c r="C22" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C22" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>19-20级经验值</v>
       </c>
-      <c r="D22" s="5">
-        <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="5">
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="2:4">
+      <c r="B23" s="4">
         <v>20</v>
       </c>
-      <c r="C23" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C23" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>20-21级经验值</v>
       </c>
-      <c r="D23" s="5">
-        <f t="shared" si="1"/>
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="5">
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="2:4">
+      <c r="B24" s="4">
         <v>21</v>
       </c>
-      <c r="C24" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C24" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>21-22级经验值</v>
       </c>
-      <c r="D24" s="5">
-        <f t="shared" si="1"/>
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="5">
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="2:4">
+      <c r="B25" s="4">
         <v>22</v>
       </c>
-      <c r="C25" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C25" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>22-23级经验值</v>
       </c>
-      <c r="D25" s="5">
-        <f t="shared" si="1"/>
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="5">
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="26" s="3" customFormat="1" spans="2:4">
+      <c r="B26" s="4">
         <v>23</v>
       </c>
-      <c r="C26" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C26" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>23-24级经验值</v>
       </c>
-      <c r="D26" s="5">
-        <f t="shared" si="1"/>
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="5">
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="2:4">
+      <c r="B27" s="4">
         <v>24</v>
       </c>
-      <c r="C27" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C27" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>24-25级经验值</v>
       </c>
-      <c r="D27" s="5">
-        <f t="shared" si="1"/>
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="5">
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="2:4">
+      <c r="B28" s="4">
         <v>25</v>
       </c>
-      <c r="C28" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C28" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>25-26级经验值</v>
       </c>
-      <c r="D28" s="5">
-        <f t="shared" si="1"/>
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="5">
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="2:4">
+      <c r="B29" s="4">
         <v>26</v>
       </c>
-      <c r="C29" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C29" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>26-27级经验值</v>
       </c>
-      <c r="D29" s="5">
-        <f t="shared" si="1"/>
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="5">
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="2:4">
+      <c r="B30" s="4">
         <v>27</v>
       </c>
-      <c r="C30" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C30" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>27-28级经验值</v>
       </c>
-      <c r="D30" s="5">
-        <f t="shared" si="1"/>
-        <v>280000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="5">
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="2:4">
+      <c r="B31" s="4">
         <v>28</v>
       </c>
-      <c r="C31" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C31" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>28-29级经验值</v>
       </c>
-      <c r="D31" s="5">
-        <f t="shared" si="1"/>
-        <v>290000</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="5">
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="32" s="3" customFormat="1" spans="2:4">
+      <c r="B32" s="4">
         <v>29</v>
       </c>
-      <c r="C32" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C32" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>29-30级经验值</v>
       </c>
-      <c r="D32" s="5">
-        <f t="shared" si="1"/>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="5">
+      <c r="D32" s="4">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="33" s="3" customFormat="1" spans="2:4">
+      <c r="B33" s="4">
         <v>30</v>
       </c>
-      <c r="C33" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C33" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>30-31级经验值</v>
       </c>
-      <c r="D33" s="5">
-        <f t="shared" si="1"/>
-        <v>310000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="5">
+      <c r="D33" s="4">
+        <f t="shared" si="0"/>
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="34" s="3" customFormat="1" spans="2:4">
+      <c r="B34" s="4">
         <v>31</v>
       </c>
-      <c r="C34" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C34" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>31-32级经验值</v>
       </c>
-      <c r="D34" s="5">
-        <f t="shared" si="1"/>
-        <v>320000</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="5">
+      <c r="D34" s="4">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="35" s="3" customFormat="1" spans="2:4">
+      <c r="B35" s="4">
         <v>32</v>
       </c>
-      <c r="C35" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C35" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>32-33级经验值</v>
       </c>
-      <c r="D35" s="5">
-        <f t="shared" si="1"/>
-        <v>330000</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="5">
+      <c r="D35" s="4">
+        <f t="shared" si="0"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="36" s="3" customFormat="1" spans="2:4">
+      <c r="B36" s="4">
         <v>33</v>
       </c>
-      <c r="C36" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C36" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>33-34级经验值</v>
       </c>
-      <c r="D36" s="5">
-        <f t="shared" si="1"/>
-        <v>340000</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="5">
+      <c r="D36" s="4">
+        <f t="shared" si="0"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="37" s="3" customFormat="1" spans="2:4">
+      <c r="B37" s="4">
         <v>34</v>
       </c>
-      <c r="C37" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C37" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>34-35级经验值</v>
       </c>
-      <c r="D37" s="5">
-        <f t="shared" si="1"/>
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="5">
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:D68" si="2">B37*100+100</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="38" s="3" customFormat="1" spans="2:4">
+      <c r="B38" s="4">
         <v>35</v>
       </c>
-      <c r="C38" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C38" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>35-36级经验值</v>
       </c>
-      <c r="D38" s="5">
-        <f t="shared" si="1"/>
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="5">
+      <c r="D38" s="4">
+        <f t="shared" si="2"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="39" s="3" customFormat="1" spans="2:4">
+      <c r="B39" s="4">
         <v>36</v>
       </c>
-      <c r="C39" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C39" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>36-37级经验值</v>
       </c>
-      <c r="D39" s="5">
-        <f t="shared" si="1"/>
-        <v>370000</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="5">
+      <c r="D39" s="4">
+        <f t="shared" si="2"/>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="40" s="3" customFormat="1" spans="2:4">
+      <c r="B40" s="4">
         <v>37</v>
       </c>
-      <c r="C40" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C40" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>37-38级经验值</v>
       </c>
-      <c r="D40" s="5">
-        <f t="shared" si="1"/>
-        <v>380000</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="5">
+      <c r="D40" s="4">
+        <f t="shared" si="2"/>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="41" s="3" customFormat="1" spans="2:4">
+      <c r="B41" s="4">
         <v>38</v>
       </c>
-      <c r="C41" s="6" t="str">
-        <f t="shared" ref="C41:C73" si="2">_xlfn.CONCAT(B41,"-",B42,"级经验值")</f>
+      <c r="C41" s="8" t="str">
+        <f t="shared" ref="C41:C73" si="3">_xlfn.CONCAT(B41,"-",B42,"级经验值")</f>
         <v>38-39级经验值</v>
       </c>
-      <c r="D41" s="5">
-        <f t="shared" ref="D41:D73" si="3">B41*10000+10000</f>
-        <v>390000</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="5">
+      <c r="D41" s="4">
+        <f t="shared" si="2"/>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="42" s="3" customFormat="1" spans="2:4">
+      <c r="B42" s="4">
         <v>39</v>
       </c>
-      <c r="C42" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C42" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>39-40级经验值</v>
       </c>
-      <c r="D42" s="5">
-        <f t="shared" si="3"/>
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="5">
+      <c r="D42" s="4">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="43" s="3" customFormat="1" spans="2:4">
+      <c r="B43" s="4">
         <v>40</v>
       </c>
-      <c r="C43" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C43" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>40-41级经验值</v>
       </c>
-      <c r="D43" s="5">
-        <f t="shared" si="3"/>
-        <v>410000</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="5">
+      <c r="D43" s="4">
+        <f t="shared" si="2"/>
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="44" s="3" customFormat="1" spans="2:4">
+      <c r="B44" s="4">
         <v>41</v>
       </c>
-      <c r="C44" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C44" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>41-42级经验值</v>
       </c>
-      <c r="D44" s="5">
-        <f t="shared" si="3"/>
-        <v>420000</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="5">
+      <c r="D44" s="4">
+        <f t="shared" si="2"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="45" s="3" customFormat="1" spans="2:4">
+      <c r="B45" s="4">
         <v>42</v>
       </c>
-      <c r="C45" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C45" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>42-43级经验值</v>
       </c>
-      <c r="D45" s="5">
-        <f t="shared" si="3"/>
-        <v>430000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="5">
+      <c r="D45" s="4">
+        <f t="shared" si="2"/>
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="46" s="3" customFormat="1" spans="2:4">
+      <c r="B46" s="4">
         <v>43</v>
       </c>
-      <c r="C46" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C46" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>43-44级经验值</v>
       </c>
-      <c r="D46" s="5">
-        <f t="shared" si="3"/>
-        <v>440000</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="5">
+      <c r="D46" s="4">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="47" s="3" customFormat="1" spans="2:4">
+      <c r="B47" s="4">
         <v>44</v>
       </c>
-      <c r="C47" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C47" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>44-45级经验值</v>
       </c>
-      <c r="D47" s="5">
-        <f t="shared" si="3"/>
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="5">
+      <c r="D47" s="4">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="48" s="3" customFormat="1" spans="2:4">
+      <c r="B48" s="4">
         <v>45</v>
       </c>
-      <c r="C48" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C48" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>45-46级经验值</v>
       </c>
-      <c r="D48" s="5">
-        <f t="shared" si="3"/>
-        <v>460000</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="5">
+      <c r="D48" s="4">
+        <f t="shared" si="2"/>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="49" s="3" customFormat="1" spans="2:4">
+      <c r="B49" s="4">
         <v>46</v>
       </c>
-      <c r="C49" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C49" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>46-47级经验值</v>
       </c>
-      <c r="D49" s="5">
-        <f t="shared" si="3"/>
-        <v>470000</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="5">
+      <c r="D49" s="4">
+        <f t="shared" si="2"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="50" s="3" customFormat="1" spans="2:4">
+      <c r="B50" s="4">
         <v>47</v>
       </c>
-      <c r="C50" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C50" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>47-48级经验值</v>
       </c>
-      <c r="D50" s="5">
-        <f t="shared" si="3"/>
-        <v>480000</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="5">
+      <c r="D50" s="4">
+        <f t="shared" si="2"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="51" s="3" customFormat="1" spans="2:4">
+      <c r="B51" s="4">
         <v>48</v>
       </c>
-      <c r="C51" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C51" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>48-49级经验值</v>
       </c>
-      <c r="D51" s="5">
-        <f t="shared" si="3"/>
-        <v>490000</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="5">
+      <c r="D51" s="4">
+        <f t="shared" si="2"/>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="52" s="3" customFormat="1" spans="2:4">
+      <c r="B52" s="4">
         <v>49</v>
       </c>
-      <c r="C52" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C52" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>49-50级经验值</v>
       </c>
-      <c r="D52" s="5">
-        <f t="shared" si="3"/>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="5">
+      <c r="D52" s="4">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="53" s="3" customFormat="1" spans="2:4">
+      <c r="B53" s="4">
         <v>50</v>
       </c>
-      <c r="C53" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C53" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>50-51级经验值</v>
       </c>
-      <c r="D53" s="5">
-        <f t="shared" si="3"/>
-        <v>510000</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="5">
+      <c r="D53" s="4">
+        <f t="shared" si="2"/>
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="54" s="3" customFormat="1" spans="2:4">
+      <c r="B54" s="4">
         <v>51</v>
       </c>
-      <c r="C54" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C54" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>51-52级经验值</v>
       </c>
-      <c r="D54" s="5">
-        <f t="shared" si="3"/>
-        <v>520000</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="5">
+      <c r="D54" s="4">
+        <f t="shared" si="2"/>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="55" s="3" customFormat="1" spans="2:4">
+      <c r="B55" s="4">
         <v>52</v>
       </c>
-      <c r="C55" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C55" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>52-53级经验值</v>
       </c>
-      <c r="D55" s="5">
-        <f t="shared" si="3"/>
-        <v>530000</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="5">
+      <c r="D55" s="4">
+        <f t="shared" si="2"/>
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="56" s="3" customFormat="1" spans="2:4">
+      <c r="B56" s="4">
         <v>53</v>
       </c>
-      <c r="C56" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C56" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>53-54级经验值</v>
       </c>
-      <c r="D56" s="5">
-        <f t="shared" si="3"/>
-        <v>540000</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="5">
+      <c r="D56" s="4">
+        <f t="shared" si="2"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="57" s="3" customFormat="1" spans="2:4">
+      <c r="B57" s="4">
         <v>54</v>
       </c>
-      <c r="C57" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C57" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>54-55级经验值</v>
       </c>
-      <c r="D57" s="5">
-        <f t="shared" si="3"/>
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="5">
+      <c r="D57" s="4">
+        <f t="shared" si="2"/>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="58" s="3" customFormat="1" spans="2:4">
+      <c r="B58" s="4">
         <v>55</v>
       </c>
-      <c r="C58" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C58" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>55-56级经验值</v>
       </c>
-      <c r="D58" s="5">
-        <f t="shared" si="3"/>
-        <v>560000</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="5">
+      <c r="D58" s="4">
+        <f t="shared" si="2"/>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="59" s="3" customFormat="1" spans="2:4">
+      <c r="B59" s="4">
         <v>56</v>
       </c>
-      <c r="C59" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C59" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>56-57级经验值</v>
       </c>
-      <c r="D59" s="5">
-        <f t="shared" si="3"/>
-        <v>570000</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="5">
+      <c r="D59" s="4">
+        <f t="shared" si="2"/>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="60" s="3" customFormat="1" spans="2:4">
+      <c r="B60" s="4">
         <v>57</v>
       </c>
-      <c r="C60" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C60" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>57-58级经验值</v>
       </c>
-      <c r="D60" s="5">
-        <f t="shared" si="3"/>
-        <v>580000</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="5">
+      <c r="D60" s="4">
+        <f t="shared" si="2"/>
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="61" s="3" customFormat="1" spans="2:4">
+      <c r="B61" s="4">
         <v>58</v>
       </c>
-      <c r="C61" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C61" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>58-59级经验值</v>
       </c>
-      <c r="D61" s="5">
-        <f t="shared" si="3"/>
-        <v>590000</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="5">
+      <c r="D61" s="4">
+        <f t="shared" si="2"/>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="62" s="3" customFormat="1" spans="2:4">
+      <c r="B62" s="4">
         <v>59</v>
       </c>
-      <c r="C62" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C62" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>59-60级经验值</v>
       </c>
-      <c r="D62" s="5">
-        <f t="shared" si="3"/>
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="5">
+      <c r="D62" s="4">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="63" s="3" customFormat="1" spans="2:4">
+      <c r="B63" s="4">
         <v>60</v>
       </c>
-      <c r="C63" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C63" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>60-61级经验值</v>
       </c>
-      <c r="D63" s="5">
-        <f t="shared" si="3"/>
-        <v>610000</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="5">
+      <c r="D63" s="4">
+        <f t="shared" si="2"/>
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="64" s="3" customFormat="1" spans="2:4">
+      <c r="B64" s="4">
         <v>61</v>
       </c>
-      <c r="C64" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C64" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>61-62级经验值</v>
       </c>
-      <c r="D64" s="5">
-        <f t="shared" si="3"/>
-        <v>620000</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="5">
+      <c r="D64" s="4">
+        <f t="shared" si="2"/>
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="65" s="3" customFormat="1" spans="2:4">
+      <c r="B65" s="4">
         <v>62</v>
       </c>
-      <c r="C65" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C65" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>62-63级经验值</v>
       </c>
-      <c r="D65" s="5">
-        <f t="shared" si="3"/>
-        <v>630000</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" s="5">
+      <c r="D65" s="4">
+        <f t="shared" si="2"/>
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="66" s="3" customFormat="1" spans="2:4">
+      <c r="B66" s="4">
         <v>63</v>
       </c>
-      <c r="C66" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C66" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>63-64级经验值</v>
       </c>
-      <c r="D66" s="5">
-        <f t="shared" si="3"/>
-        <v>640000</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4">
-      <c r="B67" s="5">
+      <c r="D66" s="4">
+        <f t="shared" si="2"/>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="67" s="3" customFormat="1" spans="2:4">
+      <c r="B67" s="4">
         <v>64</v>
       </c>
-      <c r="C67" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C67" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>64-65级经验值</v>
       </c>
-      <c r="D67" s="5">
-        <f t="shared" si="3"/>
-        <v>650000</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
-      <c r="B68" s="5">
+      <c r="D67" s="4">
+        <f t="shared" si="2"/>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="68" s="3" customFormat="1" spans="2:4">
+      <c r="B68" s="4">
         <v>65</v>
       </c>
-      <c r="C68" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C68" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>65-66级经验值</v>
       </c>
-      <c r="D68" s="5">
-        <f t="shared" si="3"/>
-        <v>660000</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4">
-      <c r="B69" s="5">
+      <c r="D68" s="4">
+        <f t="shared" si="2"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="69" s="3" customFormat="1" spans="2:4">
+      <c r="B69" s="4">
         <v>66</v>
       </c>
-      <c r="C69" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C69" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>66-67级经验值</v>
       </c>
-      <c r="D69" s="5">
-        <f t="shared" si="3"/>
-        <v>670000</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4">
-      <c r="B70" s="5">
+      <c r="D69" s="4">
+        <f>B69*100+100</f>
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="70" s="3" customFormat="1" spans="2:4">
+      <c r="B70" s="4">
         <v>67</v>
       </c>
-      <c r="C70" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C70" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>67-68级经验值</v>
       </c>
-      <c r="D70" s="5">
-        <f t="shared" si="3"/>
-        <v>680000</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4">
-      <c r="B71" s="5">
+      <c r="D70" s="4">
+        <f>B70*100+100</f>
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="71" s="3" customFormat="1" spans="2:4">
+      <c r="B71" s="4">
         <v>68</v>
       </c>
-      <c r="C71" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C71" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>68-69级经验值</v>
       </c>
-      <c r="D71" s="5">
-        <f t="shared" si="3"/>
-        <v>690000</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4">
-      <c r="B72" s="5">
+      <c r="D71" s="4">
+        <f>B71*100+100</f>
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="72" s="3" customFormat="1" spans="2:4">
+      <c r="B72" s="4">
         <v>69</v>
       </c>
-      <c r="C72" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C72" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>69-70级经验值</v>
       </c>
-      <c r="D72" s="5">
-        <f t="shared" si="3"/>
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4">
-      <c r="B73" s="5">
+      <c r="D72" s="4">
+        <f>B72*100+100</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="73" s="3" customFormat="1" spans="2:4">
+      <c r="B73" s="4">
         <v>70</v>
       </c>
-      <c r="C73" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>70-级经验值</v>
-      </c>
-      <c r="D73" s="5">
+      <c r="C73" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>70-71级经验值</v>
+      </c>
+      <c r="D73" s="4">
+        <f>B73*100+100</f>
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="4">
+        <v>71</v>
+      </c>
+      <c r="C74" s="8" t="str">
+        <f t="shared" ref="C74:C83" si="4">_xlfn.CONCAT(B74,"-",B75,"级经验值")</f>
+        <v>71-72级经验值</v>
+      </c>
+      <c r="D74" s="4">
+        <f t="shared" ref="D74:D83" si="5">B74*100+100</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="4">
+        <v>72</v>
+      </c>
+      <c r="C75" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>72-73级经验值</v>
+      </c>
+      <c r="D75" s="4">
+        <f t="shared" si="5"/>
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="4">
+        <v>73</v>
+      </c>
+      <c r="C76" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>73-74级经验值</v>
+      </c>
+      <c r="D76" s="4">
+        <f t="shared" si="5"/>
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="4">
+        <v>74</v>
+      </c>
+      <c r="C77" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>74-75级经验值</v>
+      </c>
+      <c r="D77" s="4">
+        <f t="shared" si="5"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="4">
+        <v>75</v>
+      </c>
+      <c r="C78" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>75-76级经验值</v>
+      </c>
+      <c r="D78" s="4">
+        <f t="shared" si="5"/>
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="4">
+        <v>76</v>
+      </c>
+      <c r="C79" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>76-77级经验值</v>
+      </c>
+      <c r="D79" s="4">
+        <f t="shared" si="5"/>
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="4">
+        <v>77</v>
+      </c>
+      <c r="C80" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>77-78级经验值</v>
+      </c>
+      <c r="D80" s="4">
+        <f t="shared" si="5"/>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="4">
+        <v>78</v>
+      </c>
+      <c r="C81" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>78-79级经验值</v>
+      </c>
+      <c r="D81" s="4">
+        <f t="shared" si="5"/>
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="4">
+        <v>79</v>
+      </c>
+      <c r="C82" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>79-80级经验值</v>
+      </c>
+      <c r="D82" s="4">
+        <f t="shared" si="5"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" s="4">
+        <v>80</v>
+      </c>
+      <c r="C83" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>80-级经验值</v>
+      </c>
+      <c r="D83" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="5"/>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="5"/>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="5"/>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="5"/>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="5"/>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="5"/>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="5"/>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="5"/>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="5"/>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="5"/>
-    </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="5"/>
+      <c r="B84" s="10"/>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="5"/>
+      <c r="B85" s="10"/>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="5"/>
+      <c r="B86" s="10"/>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="5"/>
+      <c r="B87" s="10"/>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="5"/>
+      <c r="B88" s="10"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="5"/>
+      <c r="B89" s="10"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="5"/>
+      <c r="B90" s="10"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="5"/>
+      <c r="B91" s="10"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="5"/>
+      <c r="B92" s="10"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="5"/>
+      <c r="B93" s="10"/>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="5"/>
+      <c r="B94" s="10"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="5"/>
+      <c r="B95" s="10"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="5"/>
+      <c r="B96" s="10"/>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="5"/>
+      <c r="B97" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/ExpConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ExpConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18465" windowHeight="8325"/>
+    <workbookView windowWidth="18705" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="ExpProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>##var</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Exp</t>
+  </si>
+  <si>
+    <t>Property</t>
   </si>
   <si>
     <t>##type</t>
@@ -53,6 +56,9 @@
     <t>long</t>
   </si>
   <si>
+    <t>int#ref=PropertyConfigCategory</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -60,6 +66,9 @@
   </si>
   <si>
     <t>经验值</t>
+  </si>
+  <si>
+    <t>等级属性包</t>
   </si>
 </sst>
 </file>
@@ -691,7 +700,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
@@ -702,13 +711,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1061,70 +1065,79 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="19" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="6.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.625" style="5" customWidth="1"/>
     <col min="6" max="6" width="6.625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
-      <c r="A3" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="2:4">
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="2:5">
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="str">
+      <c r="C4" s="6" t="str">
         <f>_xlfn.CONCAT(B4,"-",B5,"级经验值")</f>
         <v>1-2级经验值</v>
       </c>
@@ -1132,12 +1145,15 @@
         <f>B4*100+100</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="2:4">
+      <c r="E4" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="2:5">
       <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="str">
+      <c r="C5" s="6" t="str">
         <f>_xlfn.CONCAT(B5,"-",B6,"级经验值")</f>
         <v>2-3级经验值</v>
       </c>
@@ -1145,12 +1161,15 @@
         <f t="shared" ref="D5:D36" si="0">B5*100+100</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="6" s="4" customFormat="1" spans="2:4">
+      <c r="E5" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" spans="2:5">
       <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="str">
+      <c r="C6" s="6" t="str">
         <f>_xlfn.CONCAT(B6,"-",B7,"级经验值")</f>
         <v>3-4级经验值</v>
       </c>
@@ -1158,13 +1177,15 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:4">
-      <c r="A7" s="9"/>
+      <c r="E6" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="2:5">
       <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="8" t="str">
+      <c r="C7" s="6" t="str">
         <f>_xlfn.CONCAT(B7,"-",B8,"级经验值")</f>
         <v>4-5级经验值</v>
       </c>
@@ -1172,12 +1193,15 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="2:4">
+      <c r="E7" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="2:5">
       <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="8" t="str">
+      <c r="C8" s="6" t="str">
         <f t="shared" ref="C8:C40" si="1">_xlfn.CONCAT(B8,"-",B9,"级经验值")</f>
         <v>5-6级经验值</v>
       </c>
@@ -1185,12 +1209,15 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="2:4">
+      <c r="E8" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="2:5">
       <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="8" t="str">
+      <c r="C9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>6-7级经验值</v>
       </c>
@@ -1198,12 +1225,15 @@
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="2:4">
+      <c r="E9" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="2:5">
       <c r="B10" s="4">
         <v>7</v>
       </c>
-      <c r="C10" s="8" t="str">
+      <c r="C10" s="6" t="str">
         <f t="shared" si="1"/>
         <v>7-8级经验值</v>
       </c>
@@ -1211,12 +1241,15 @@
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="2:4">
+      <c r="E10" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="2:5">
       <c r="B11" s="4">
         <v>8</v>
       </c>
-      <c r="C11" s="8" t="str">
+      <c r="C11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>8-9级经验值</v>
       </c>
@@ -1224,12 +1257,15 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="2:4">
+      <c r="E11" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="2:5">
       <c r="B12" s="4">
         <v>9</v>
       </c>
-      <c r="C12" s="8" t="str">
+      <c r="C12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>9-10级经验值</v>
       </c>
@@ -1237,12 +1273,15 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="2:4">
+      <c r="E12" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="2:5">
       <c r="B13" s="4">
         <v>10</v>
       </c>
-      <c r="C13" s="8" t="str">
+      <c r="C13" s="6" t="str">
         <f t="shared" si="1"/>
         <v>10-11级经验值</v>
       </c>
@@ -1250,12 +1289,15 @@
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="2:4">
+      <c r="E13" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="2:5">
       <c r="B14" s="4">
         <v>11</v>
       </c>
-      <c r="C14" s="8" t="str">
+      <c r="C14" s="6" t="str">
         <f t="shared" si="1"/>
         <v>11-12级经验值</v>
       </c>
@@ -1263,12 +1305,15 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="2:4">
+      <c r="E14" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="2:5">
       <c r="B15" s="4">
         <v>12</v>
       </c>
-      <c r="C15" s="8" t="str">
+      <c r="C15" s="6" t="str">
         <f t="shared" si="1"/>
         <v>12-13级经验值</v>
       </c>
@@ -1276,12 +1321,15 @@
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="2:4">
+      <c r="E15" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="2:5">
       <c r="B16" s="4">
         <v>13</v>
       </c>
-      <c r="C16" s="8" t="str">
+      <c r="C16" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13-14级经验值</v>
       </c>
@@ -1289,12 +1337,15 @@
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="2:4">
+      <c r="E16" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="2:5">
       <c r="B17" s="4">
         <v>14</v>
       </c>
-      <c r="C17" s="8" t="str">
+      <c r="C17" s="6" t="str">
         <f t="shared" si="1"/>
         <v>14-15级经验值</v>
       </c>
@@ -1302,12 +1353,15 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="2:4">
+      <c r="E17" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="2:5">
       <c r="B18" s="4">
         <v>15</v>
       </c>
-      <c r="C18" s="8" t="str">
+      <c r="C18" s="6" t="str">
         <f t="shared" si="1"/>
         <v>15-16级经验值</v>
       </c>
@@ -1315,12 +1369,15 @@
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="2:4">
+      <c r="E18" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="2:5">
       <c r="B19" s="4">
         <v>16</v>
       </c>
-      <c r="C19" s="8" t="str">
+      <c r="C19" s="6" t="str">
         <f t="shared" si="1"/>
         <v>16-17级经验值</v>
       </c>
@@ -1328,12 +1385,15 @@
         <f t="shared" si="0"/>
         <v>1700</v>
       </c>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="2:4">
+      <c r="E19" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="2:5">
       <c r="B20" s="4">
         <v>17</v>
       </c>
-      <c r="C20" s="8" t="str">
+      <c r="C20" s="6" t="str">
         <f t="shared" si="1"/>
         <v>17-18级经验值</v>
       </c>
@@ -1341,12 +1401,15 @@
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="2:4">
+      <c r="E20" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="2:5">
       <c r="B21" s="4">
         <v>18</v>
       </c>
-      <c r="C21" s="8" t="str">
+      <c r="C21" s="6" t="str">
         <f t="shared" si="1"/>
         <v>18-19级经验值</v>
       </c>
@@ -1354,12 +1417,15 @@
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="2:4">
+      <c r="E21" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="2:5">
       <c r="B22" s="4">
         <v>19</v>
       </c>
-      <c r="C22" s="8" t="str">
+      <c r="C22" s="6" t="str">
         <f t="shared" si="1"/>
         <v>19-20级经验值</v>
       </c>
@@ -1367,12 +1433,15 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="2:4">
+      <c r="E22" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="2:5">
       <c r="B23" s="4">
         <v>20</v>
       </c>
-      <c r="C23" s="8" t="str">
+      <c r="C23" s="6" t="str">
         <f t="shared" si="1"/>
         <v>20-21级经验值</v>
       </c>
@@ -1380,12 +1449,15 @@
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="2:4">
+      <c r="E23" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="2:5">
       <c r="B24" s="4">
         <v>21</v>
       </c>
-      <c r="C24" s="8" t="str">
+      <c r="C24" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21-22级经验值</v>
       </c>
@@ -1393,12 +1465,15 @@
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="2:4">
+      <c r="E24" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="2:5">
       <c r="B25" s="4">
         <v>22</v>
       </c>
-      <c r="C25" s="8" t="str">
+      <c r="C25" s="6" t="str">
         <f t="shared" si="1"/>
         <v>22-23级经验值</v>
       </c>
@@ -1406,12 +1481,15 @@
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
-    </row>
-    <row r="26" s="3" customFormat="1" spans="2:4">
+      <c r="E25" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="26" s="3" customFormat="1" spans="2:5">
       <c r="B26" s="4">
         <v>23</v>
       </c>
-      <c r="C26" s="8" t="str">
+      <c r="C26" s="6" t="str">
         <f t="shared" si="1"/>
         <v>23-24级经验值</v>
       </c>
@@ -1419,12 +1497,15 @@
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
-    </row>
-    <row r="27" s="3" customFormat="1" spans="2:4">
+      <c r="E26" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="2:5">
       <c r="B27" s="4">
         <v>24</v>
       </c>
-      <c r="C27" s="8" t="str">
+      <c r="C27" s="6" t="str">
         <f t="shared" si="1"/>
         <v>24-25级经验值</v>
       </c>
@@ -1432,12 +1513,15 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-    </row>
-    <row r="28" s="3" customFormat="1" spans="2:4">
+      <c r="E27" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="2:5">
       <c r="B28" s="4">
         <v>25</v>
       </c>
-      <c r="C28" s="8" t="str">
+      <c r="C28" s="6" t="str">
         <f t="shared" si="1"/>
         <v>25-26级经验值</v>
       </c>
@@ -1445,12 +1529,15 @@
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
-    </row>
-    <row r="29" s="3" customFormat="1" spans="2:4">
+      <c r="E28" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="2:5">
       <c r="B29" s="4">
         <v>26</v>
       </c>
-      <c r="C29" s="8" t="str">
+      <c r="C29" s="6" t="str">
         <f t="shared" si="1"/>
         <v>26-27级经验值</v>
       </c>
@@ -1458,12 +1545,15 @@
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-    </row>
-    <row r="30" s="3" customFormat="1" spans="2:4">
+      <c r="E29" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="2:5">
       <c r="B30" s="4">
         <v>27</v>
       </c>
-      <c r="C30" s="8" t="str">
+      <c r="C30" s="6" t="str">
         <f t="shared" si="1"/>
         <v>27-28级经验值</v>
       </c>
@@ -1471,12 +1561,15 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-    </row>
-    <row r="31" s="3" customFormat="1" spans="2:4">
+      <c r="E30" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="2:5">
       <c r="B31" s="4">
         <v>28</v>
       </c>
-      <c r="C31" s="8" t="str">
+      <c r="C31" s="6" t="str">
         <f t="shared" si="1"/>
         <v>28-29级经验值</v>
       </c>
@@ -1484,12 +1577,15 @@
         <f t="shared" si="0"/>
         <v>2900</v>
       </c>
-    </row>
-    <row r="32" s="3" customFormat="1" spans="2:4">
+      <c r="E31" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="32" s="3" customFormat="1" spans="2:5">
       <c r="B32" s="4">
         <v>29</v>
       </c>
-      <c r="C32" s="8" t="str">
+      <c r="C32" s="6" t="str">
         <f t="shared" si="1"/>
         <v>29-30级经验值</v>
       </c>
@@ -1497,12 +1593,15 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-    </row>
-    <row r="33" s="3" customFormat="1" spans="2:4">
+      <c r="E32" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="33" s="3" customFormat="1" spans="2:5">
       <c r="B33" s="4">
         <v>30</v>
       </c>
-      <c r="C33" s="8" t="str">
+      <c r="C33" s="6" t="str">
         <f t="shared" si="1"/>
         <v>30-31级经验值</v>
       </c>
@@ -1510,12 +1609,15 @@
         <f t="shared" si="0"/>
         <v>3100</v>
       </c>
-    </row>
-    <row r="34" s="3" customFormat="1" spans="2:4">
+      <c r="E33" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="34" s="3" customFormat="1" spans="2:5">
       <c r="B34" s="4">
         <v>31</v>
       </c>
-      <c r="C34" s="8" t="str">
+      <c r="C34" s="6" t="str">
         <f t="shared" si="1"/>
         <v>31-32级经验值</v>
       </c>
@@ -1523,12 +1625,15 @@
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-    </row>
-    <row r="35" s="3" customFormat="1" spans="2:4">
+      <c r="E34" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="35" s="3" customFormat="1" spans="2:5">
       <c r="B35" s="4">
         <v>32</v>
       </c>
-      <c r="C35" s="8" t="str">
+      <c r="C35" s="6" t="str">
         <f t="shared" si="1"/>
         <v>32-33级经验值</v>
       </c>
@@ -1536,12 +1641,15 @@
         <f t="shared" si="0"/>
         <v>3300</v>
       </c>
-    </row>
-    <row r="36" s="3" customFormat="1" spans="2:4">
+      <c r="E35" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="36" s="3" customFormat="1" spans="2:5">
       <c r="B36" s="4">
         <v>33</v>
       </c>
-      <c r="C36" s="8" t="str">
+      <c r="C36" s="6" t="str">
         <f t="shared" si="1"/>
         <v>33-34级经验值</v>
       </c>
@@ -1549,25 +1657,31 @@
         <f t="shared" si="0"/>
         <v>3400</v>
       </c>
-    </row>
-    <row r="37" s="3" customFormat="1" spans="2:4">
+      <c r="E36" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="37" s="3" customFormat="1" spans="2:5">
       <c r="B37" s="4">
         <v>34</v>
       </c>
-      <c r="C37" s="8" t="str">
+      <c r="C37" s="6" t="str">
         <f t="shared" si="1"/>
         <v>34-35级经验值</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" ref="D37:D68" si="2">B37*100+100</f>
+        <f t="shared" ref="D37:D73" si="2">B37*100+100</f>
         <v>3500</v>
       </c>
-    </row>
-    <row r="38" s="3" customFormat="1" spans="2:4">
+      <c r="E37" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="38" s="3" customFormat="1" spans="2:5">
       <c r="B38" s="4">
         <v>35</v>
       </c>
-      <c r="C38" s="8" t="str">
+      <c r="C38" s="6" t="str">
         <f t="shared" si="1"/>
         <v>35-36级经验值</v>
       </c>
@@ -1575,12 +1689,15 @@
         <f t="shared" si="2"/>
         <v>3600</v>
       </c>
-    </row>
-    <row r="39" s="3" customFormat="1" spans="2:4">
+      <c r="E38" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="39" s="3" customFormat="1" spans="2:5">
       <c r="B39" s="4">
         <v>36</v>
       </c>
-      <c r="C39" s="8" t="str">
+      <c r="C39" s="6" t="str">
         <f t="shared" si="1"/>
         <v>36-37级经验值</v>
       </c>
@@ -1588,12 +1705,15 @@
         <f t="shared" si="2"/>
         <v>3700</v>
       </c>
-    </row>
-    <row r="40" s="3" customFormat="1" spans="2:4">
+      <c r="E39" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="40" s="3" customFormat="1" spans="2:5">
       <c r="B40" s="4">
         <v>37</v>
       </c>
-      <c r="C40" s="8" t="str">
+      <c r="C40" s="6" t="str">
         <f t="shared" si="1"/>
         <v>37-38级经验值</v>
       </c>
@@ -1601,12 +1721,15 @@
         <f t="shared" si="2"/>
         <v>3800</v>
       </c>
-    </row>
-    <row r="41" s="3" customFormat="1" spans="2:4">
+      <c r="E40" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="41" s="3" customFormat="1" spans="2:5">
       <c r="B41" s="4">
         <v>38</v>
       </c>
-      <c r="C41" s="8" t="str">
+      <c r="C41" s="6" t="str">
         <f t="shared" ref="C41:C73" si="3">_xlfn.CONCAT(B41,"-",B42,"级经验值")</f>
         <v>38-39级经验值</v>
       </c>
@@ -1614,12 +1737,15 @@
         <f t="shared" si="2"/>
         <v>3900</v>
       </c>
-    </row>
-    <row r="42" s="3" customFormat="1" spans="2:4">
+      <c r="E41" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="42" s="3" customFormat="1" spans="2:5">
       <c r="B42" s="4">
         <v>39</v>
       </c>
-      <c r="C42" s="8" t="str">
+      <c r="C42" s="6" t="str">
         <f t="shared" si="3"/>
         <v>39-40级经验值</v>
       </c>
@@ -1627,12 +1753,15 @@
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="43" s="3" customFormat="1" spans="2:4">
+      <c r="E42" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="43" s="3" customFormat="1" spans="2:5">
       <c r="B43" s="4">
         <v>40</v>
       </c>
-      <c r="C43" s="8" t="str">
+      <c r="C43" s="6" t="str">
         <f t="shared" si="3"/>
         <v>40-41级经验值</v>
       </c>
@@ -1640,12 +1769,15 @@
         <f t="shared" si="2"/>
         <v>4100</v>
       </c>
-    </row>
-    <row r="44" s="3" customFormat="1" spans="2:4">
+      <c r="E43" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="44" s="3" customFormat="1" spans="2:5">
       <c r="B44" s="4">
         <v>41</v>
       </c>
-      <c r="C44" s="8" t="str">
+      <c r="C44" s="6" t="str">
         <f t="shared" si="3"/>
         <v>41-42级经验值</v>
       </c>
@@ -1653,12 +1785,15 @@
         <f t="shared" si="2"/>
         <v>4200</v>
       </c>
-    </row>
-    <row r="45" s="3" customFormat="1" spans="2:4">
+      <c r="E44" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="45" s="3" customFormat="1" spans="2:5">
       <c r="B45" s="4">
         <v>42</v>
       </c>
-      <c r="C45" s="8" t="str">
+      <c r="C45" s="6" t="str">
         <f t="shared" si="3"/>
         <v>42-43级经验值</v>
       </c>
@@ -1666,12 +1801,15 @@
         <f t="shared" si="2"/>
         <v>4300</v>
       </c>
-    </row>
-    <row r="46" s="3" customFormat="1" spans="2:4">
+      <c r="E45" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="46" s="3" customFormat="1" spans="2:5">
       <c r="B46" s="4">
         <v>43</v>
       </c>
-      <c r="C46" s="8" t="str">
+      <c r="C46" s="6" t="str">
         <f t="shared" si="3"/>
         <v>43-44级经验值</v>
       </c>
@@ -1679,12 +1817,15 @@
         <f t="shared" si="2"/>
         <v>4400</v>
       </c>
-    </row>
-    <row r="47" s="3" customFormat="1" spans="2:4">
+      <c r="E46" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="47" s="3" customFormat="1" spans="2:5">
       <c r="B47" s="4">
         <v>44</v>
       </c>
-      <c r="C47" s="8" t="str">
+      <c r="C47" s="6" t="str">
         <f t="shared" si="3"/>
         <v>44-45级经验值</v>
       </c>
@@ -1692,12 +1833,15 @@
         <f t="shared" si="2"/>
         <v>4500</v>
       </c>
-    </row>
-    <row r="48" s="3" customFormat="1" spans="2:4">
+      <c r="E47" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="48" s="3" customFormat="1" spans="2:5">
       <c r="B48" s="4">
         <v>45</v>
       </c>
-      <c r="C48" s="8" t="str">
+      <c r="C48" s="6" t="str">
         <f t="shared" si="3"/>
         <v>45-46级经验值</v>
       </c>
@@ -1705,12 +1849,15 @@
         <f t="shared" si="2"/>
         <v>4600</v>
       </c>
-    </row>
-    <row r="49" s="3" customFormat="1" spans="2:4">
+      <c r="E48" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="49" s="3" customFormat="1" spans="2:5">
       <c r="B49" s="4">
         <v>46</v>
       </c>
-      <c r="C49" s="8" t="str">
+      <c r="C49" s="6" t="str">
         <f t="shared" si="3"/>
         <v>46-47级经验值</v>
       </c>
@@ -1718,12 +1865,15 @@
         <f t="shared" si="2"/>
         <v>4700</v>
       </c>
-    </row>
-    <row r="50" s="3" customFormat="1" spans="2:4">
+      <c r="E49" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="50" s="3" customFormat="1" spans="2:5">
       <c r="B50" s="4">
         <v>47</v>
       </c>
-      <c r="C50" s="8" t="str">
+      <c r="C50" s="6" t="str">
         <f t="shared" si="3"/>
         <v>47-48级经验值</v>
       </c>
@@ -1731,12 +1881,15 @@
         <f t="shared" si="2"/>
         <v>4800</v>
       </c>
-    </row>
-    <row r="51" s="3" customFormat="1" spans="2:4">
+      <c r="E50" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="51" s="3" customFormat="1" spans="2:5">
       <c r="B51" s="4">
         <v>48</v>
       </c>
-      <c r="C51" s="8" t="str">
+      <c r="C51" s="6" t="str">
         <f t="shared" si="3"/>
         <v>48-49级经验值</v>
       </c>
@@ -1744,12 +1897,15 @@
         <f t="shared" si="2"/>
         <v>4900</v>
       </c>
-    </row>
-    <row r="52" s="3" customFormat="1" spans="2:4">
+      <c r="E51" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="52" s="3" customFormat="1" spans="2:5">
       <c r="B52" s="4">
         <v>49</v>
       </c>
-      <c r="C52" s="8" t="str">
+      <c r="C52" s="6" t="str">
         <f t="shared" si="3"/>
         <v>49-50级经验值</v>
       </c>
@@ -1757,12 +1913,15 @@
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-    </row>
-    <row r="53" s="3" customFormat="1" spans="2:4">
+      <c r="E52" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="53" s="3" customFormat="1" spans="2:5">
       <c r="B53" s="4">
         <v>50</v>
       </c>
-      <c r="C53" s="8" t="str">
+      <c r="C53" s="6" t="str">
         <f t="shared" si="3"/>
         <v>50-51级经验值</v>
       </c>
@@ -1770,12 +1929,15 @@
         <f t="shared" si="2"/>
         <v>5100</v>
       </c>
-    </row>
-    <row r="54" s="3" customFormat="1" spans="2:4">
+      <c r="E53" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="54" s="3" customFormat="1" spans="2:5">
       <c r="B54" s="4">
         <v>51</v>
       </c>
-      <c r="C54" s="8" t="str">
+      <c r="C54" s="6" t="str">
         <f t="shared" si="3"/>
         <v>51-52级经验值</v>
       </c>
@@ -1783,12 +1945,15 @@
         <f t="shared" si="2"/>
         <v>5200</v>
       </c>
-    </row>
-    <row r="55" s="3" customFormat="1" spans="2:4">
+      <c r="E54" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="55" s="3" customFormat="1" spans="2:5">
       <c r="B55" s="4">
         <v>52</v>
       </c>
-      <c r="C55" s="8" t="str">
+      <c r="C55" s="6" t="str">
         <f t="shared" si="3"/>
         <v>52-53级经验值</v>
       </c>
@@ -1796,12 +1961,15 @@
         <f t="shared" si="2"/>
         <v>5300</v>
       </c>
-    </row>
-    <row r="56" s="3" customFormat="1" spans="2:4">
+      <c r="E55" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="56" s="3" customFormat="1" spans="2:5">
       <c r="B56" s="4">
         <v>53</v>
       </c>
-      <c r="C56" s="8" t="str">
+      <c r="C56" s="6" t="str">
         <f t="shared" si="3"/>
         <v>53-54级经验值</v>
       </c>
@@ -1809,12 +1977,15 @@
         <f t="shared" si="2"/>
         <v>5400</v>
       </c>
-    </row>
-    <row r="57" s="3" customFormat="1" spans="2:4">
+      <c r="E56" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="57" s="3" customFormat="1" spans="2:5">
       <c r="B57" s="4">
         <v>54</v>
       </c>
-      <c r="C57" s="8" t="str">
+      <c r="C57" s="6" t="str">
         <f t="shared" si="3"/>
         <v>54-55级经验值</v>
       </c>
@@ -1822,12 +1993,15 @@
         <f t="shared" si="2"/>
         <v>5500</v>
       </c>
-    </row>
-    <row r="58" s="3" customFormat="1" spans="2:4">
+      <c r="E57" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="58" s="3" customFormat="1" spans="2:5">
       <c r="B58" s="4">
         <v>55</v>
       </c>
-      <c r="C58" s="8" t="str">
+      <c r="C58" s="6" t="str">
         <f t="shared" si="3"/>
         <v>55-56级经验值</v>
       </c>
@@ -1835,12 +2009,15 @@
         <f t="shared" si="2"/>
         <v>5600</v>
       </c>
-    </row>
-    <row r="59" s="3" customFormat="1" spans="2:4">
+      <c r="E58" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="59" s="3" customFormat="1" spans="2:5">
       <c r="B59" s="4">
         <v>56</v>
       </c>
-      <c r="C59" s="8" t="str">
+      <c r="C59" s="6" t="str">
         <f t="shared" si="3"/>
         <v>56-57级经验值</v>
       </c>
@@ -1848,12 +2025,15 @@
         <f t="shared" si="2"/>
         <v>5700</v>
       </c>
-    </row>
-    <row r="60" s="3" customFormat="1" spans="2:4">
+      <c r="E59" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="60" s="3" customFormat="1" spans="2:5">
       <c r="B60" s="4">
         <v>57</v>
       </c>
-      <c r="C60" s="8" t="str">
+      <c r="C60" s="6" t="str">
         <f t="shared" si="3"/>
         <v>57-58级经验值</v>
       </c>
@@ -1861,12 +2041,15 @@
         <f t="shared" si="2"/>
         <v>5800</v>
       </c>
-    </row>
-    <row r="61" s="3" customFormat="1" spans="2:4">
+      <c r="E60" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="61" s="3" customFormat="1" spans="2:5">
       <c r="B61" s="4">
         <v>58</v>
       </c>
-      <c r="C61" s="8" t="str">
+      <c r="C61" s="6" t="str">
         <f t="shared" si="3"/>
         <v>58-59级经验值</v>
       </c>
@@ -1874,12 +2057,15 @@
         <f t="shared" si="2"/>
         <v>5900</v>
       </c>
-    </row>
-    <row r="62" s="3" customFormat="1" spans="2:4">
+      <c r="E61" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="62" s="3" customFormat="1" spans="2:5">
       <c r="B62" s="4">
         <v>59</v>
       </c>
-      <c r="C62" s="8" t="str">
+      <c r="C62" s="6" t="str">
         <f t="shared" si="3"/>
         <v>59-60级经验值</v>
       </c>
@@ -1887,12 +2073,15 @@
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="63" s="3" customFormat="1" spans="2:4">
+      <c r="E62" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="63" s="3" customFormat="1" spans="2:5">
       <c r="B63" s="4">
         <v>60</v>
       </c>
-      <c r="C63" s="8" t="str">
+      <c r="C63" s="6" t="str">
         <f t="shared" si="3"/>
         <v>60-61级经验值</v>
       </c>
@@ -1900,12 +2089,15 @@
         <f t="shared" si="2"/>
         <v>6100</v>
       </c>
-    </row>
-    <row r="64" s="3" customFormat="1" spans="2:4">
+      <c r="E63" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="64" s="3" customFormat="1" spans="2:5">
       <c r="B64" s="4">
         <v>61</v>
       </c>
-      <c r="C64" s="8" t="str">
+      <c r="C64" s="6" t="str">
         <f t="shared" si="3"/>
         <v>61-62级经验值</v>
       </c>
@@ -1913,12 +2105,15 @@
         <f t="shared" si="2"/>
         <v>6200</v>
       </c>
-    </row>
-    <row r="65" s="3" customFormat="1" spans="2:4">
+      <c r="E64" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="65" s="3" customFormat="1" spans="2:5">
       <c r="B65" s="4">
         <v>62</v>
       </c>
-      <c r="C65" s="8" t="str">
+      <c r="C65" s="6" t="str">
         <f t="shared" si="3"/>
         <v>62-63级经验值</v>
       </c>
@@ -1926,12 +2121,15 @@
         <f t="shared" si="2"/>
         <v>6300</v>
       </c>
-    </row>
-    <row r="66" s="3" customFormat="1" spans="2:4">
+      <c r="E65" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="66" s="3" customFormat="1" spans="2:5">
       <c r="B66" s="4">
         <v>63</v>
       </c>
-      <c r="C66" s="8" t="str">
+      <c r="C66" s="6" t="str">
         <f t="shared" si="3"/>
         <v>63-64级经验值</v>
       </c>
@@ -1939,12 +2137,15 @@
         <f t="shared" si="2"/>
         <v>6400</v>
       </c>
-    </row>
-    <row r="67" s="3" customFormat="1" spans="2:4">
+      <c r="E66" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="67" s="3" customFormat="1" spans="2:5">
       <c r="B67" s="4">
         <v>64</v>
       </c>
-      <c r="C67" s="8" t="str">
+      <c r="C67" s="6" t="str">
         <f t="shared" si="3"/>
         <v>64-65级经验值</v>
       </c>
@@ -1952,12 +2153,15 @@
         <f t="shared" si="2"/>
         <v>6500</v>
       </c>
-    </row>
-    <row r="68" s="3" customFormat="1" spans="2:4">
+      <c r="E67" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="68" s="3" customFormat="1" spans="2:5">
       <c r="B68" s="4">
         <v>65</v>
       </c>
-      <c r="C68" s="8" t="str">
+      <c r="C68" s="6" t="str">
         <f t="shared" si="3"/>
         <v>65-66级经验值</v>
       </c>
@@ -1965,77 +2169,95 @@
         <f t="shared" si="2"/>
         <v>6600</v>
       </c>
-    </row>
-    <row r="69" s="3" customFormat="1" spans="2:4">
+      <c r="E68" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="69" s="3" customFormat="1" spans="2:5">
       <c r="B69" s="4">
         <v>66</v>
       </c>
-      <c r="C69" s="8" t="str">
+      <c r="C69" s="6" t="str">
         <f t="shared" si="3"/>
         <v>66-67级经验值</v>
       </c>
       <c r="D69" s="4">
-        <f>B69*100+100</f>
+        <f t="shared" si="2"/>
         <v>6700</v>
       </c>
-    </row>
-    <row r="70" s="3" customFormat="1" spans="2:4">
+      <c r="E69" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="70" s="3" customFormat="1" spans="2:5">
       <c r="B70" s="4">
         <v>67</v>
       </c>
-      <c r="C70" s="8" t="str">
+      <c r="C70" s="6" t="str">
         <f t="shared" si="3"/>
         <v>67-68级经验值</v>
       </c>
       <c r="D70" s="4">
-        <f>B70*100+100</f>
+        <f t="shared" si="2"/>
         <v>6800</v>
       </c>
-    </row>
-    <row r="71" s="3" customFormat="1" spans="2:4">
+      <c r="E70" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="71" s="3" customFormat="1" spans="2:5">
       <c r="B71" s="4">
         <v>68</v>
       </c>
-      <c r="C71" s="8" t="str">
+      <c r="C71" s="6" t="str">
         <f t="shared" si="3"/>
         <v>68-69级经验值</v>
       </c>
       <c r="D71" s="4">
-        <f>B71*100+100</f>
+        <f t="shared" si="2"/>
         <v>6900</v>
       </c>
-    </row>
-    <row r="72" s="3" customFormat="1" spans="2:4">
+      <c r="E71" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="72" s="3" customFormat="1" spans="2:5">
       <c r="B72" s="4">
         <v>69</v>
       </c>
-      <c r="C72" s="8" t="str">
+      <c r="C72" s="6" t="str">
         <f t="shared" si="3"/>
         <v>69-70级经验值</v>
       </c>
       <c r="D72" s="4">
-        <f>B72*100+100</f>
+        <f t="shared" si="2"/>
         <v>7000</v>
       </c>
-    </row>
-    <row r="73" s="3" customFormat="1" spans="2:4">
+      <c r="E72" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="73" s="3" customFormat="1" spans="2:5">
       <c r="B73" s="4">
         <v>70</v>
       </c>
-      <c r="C73" s="8" t="str">
+      <c r="C73" s="6" t="str">
         <f t="shared" si="3"/>
         <v>70-71级经验值</v>
       </c>
       <c r="D73" s="4">
-        <f>B73*100+100</f>
+        <f t="shared" si="2"/>
         <v>7100</v>
       </c>
-    </row>
-    <row r="74" spans="2:4">
+      <c r="E73" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
       <c r="B74" s="4">
         <v>71</v>
       </c>
-      <c r="C74" s="8" t="str">
+      <c r="C74" s="6" t="str">
         <f t="shared" ref="C74:C83" si="4">_xlfn.CONCAT(B74,"-",B75,"级经验值")</f>
         <v>71-72级经验值</v>
       </c>
@@ -2043,12 +2265,15 @@
         <f t="shared" ref="D74:D83" si="5">B74*100+100</f>
         <v>7200</v>
       </c>
-    </row>
-    <row r="75" spans="2:4">
+      <c r="E74" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
       <c r="B75" s="4">
         <v>72</v>
       </c>
-      <c r="C75" s="8" t="str">
+      <c r="C75" s="6" t="str">
         <f t="shared" si="4"/>
         <v>72-73级经验值</v>
       </c>
@@ -2056,12 +2281,15 @@
         <f t="shared" si="5"/>
         <v>7300</v>
       </c>
-    </row>
-    <row r="76" spans="2:4">
+      <c r="E75" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
       <c r="B76" s="4">
         <v>73</v>
       </c>
-      <c r="C76" s="8" t="str">
+      <c r="C76" s="6" t="str">
         <f t="shared" si="4"/>
         <v>73-74级经验值</v>
       </c>
@@ -2069,12 +2297,15 @@
         <f t="shared" si="5"/>
         <v>7400</v>
       </c>
-    </row>
-    <row r="77" spans="2:4">
+      <c r="E76" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
       <c r="B77" s="4">
         <v>74</v>
       </c>
-      <c r="C77" s="8" t="str">
+      <c r="C77" s="6" t="str">
         <f t="shared" si="4"/>
         <v>74-75级经验值</v>
       </c>
@@ -2082,12 +2313,15 @@
         <f t="shared" si="5"/>
         <v>7500</v>
       </c>
-    </row>
-    <row r="78" spans="2:4">
+      <c r="E77" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
       <c r="B78" s="4">
         <v>75</v>
       </c>
-      <c r="C78" s="8" t="str">
+      <c r="C78" s="6" t="str">
         <f t="shared" si="4"/>
         <v>75-76级经验值</v>
       </c>
@@ -2095,12 +2329,15 @@
         <f t="shared" si="5"/>
         <v>7600</v>
       </c>
-    </row>
-    <row r="79" spans="2:4">
+      <c r="E78" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
       <c r="B79" s="4">
         <v>76</v>
       </c>
-      <c r="C79" s="8" t="str">
+      <c r="C79" s="6" t="str">
         <f t="shared" si="4"/>
         <v>76-77级经验值</v>
       </c>
@@ -2108,12 +2345,15 @@
         <f t="shared" si="5"/>
         <v>7700</v>
       </c>
-    </row>
-    <row r="80" spans="2:4">
+      <c r="E79" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
       <c r="B80" s="4">
         <v>77</v>
       </c>
-      <c r="C80" s="8" t="str">
+      <c r="C80" s="6" t="str">
         <f t="shared" si="4"/>
         <v>77-78级经验值</v>
       </c>
@@ -2121,12 +2361,15 @@
         <f t="shared" si="5"/>
         <v>7800</v>
       </c>
-    </row>
-    <row r="81" spans="2:4">
+      <c r="E80" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
       <c r="B81" s="4">
         <v>78</v>
       </c>
-      <c r="C81" s="8" t="str">
+      <c r="C81" s="6" t="str">
         <f t="shared" si="4"/>
         <v>78-79级经验值</v>
       </c>
@@ -2134,12 +2377,15 @@
         <f t="shared" si="5"/>
         <v>7900</v>
       </c>
-    </row>
-    <row r="82" spans="2:4">
+      <c r="E81" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
       <c r="B82" s="4">
         <v>79</v>
       </c>
-      <c r="C82" s="8" t="str">
+      <c r="C82" s="6" t="str">
         <f t="shared" si="4"/>
         <v>79-80级经验值</v>
       </c>
@@ -2147,60 +2393,66 @@
         <f t="shared" si="5"/>
         <v>8000</v>
       </c>
-    </row>
-    <row r="83" spans="2:4">
+      <c r="E82" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
       <c r="B83" s="4">
         <v>80</v>
       </c>
-      <c r="C83" s="8" t="str">
+      <c r="C83" s="6" t="str">
         <f t="shared" si="4"/>
         <v>80-级经验值</v>
       </c>
       <c r="D83" s="4">
         <v>0</v>
       </c>
+      <c r="E83" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="10"/>
+      <c r="B84" s="7"/>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="10"/>
+      <c r="B85" s="7"/>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="10"/>
+      <c r="B86" s="7"/>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="10"/>
+      <c r="B87" s="7"/>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="10"/>
+      <c r="B88" s="7"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="10"/>
+      <c r="B89" s="7"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="10"/>
+      <c r="B90" s="7"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="10"/>
+      <c r="B91" s="7"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="10"/>
+      <c r="B92" s="7"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="10"/>
+      <c r="B93" s="7"/>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="10"/>
+      <c r="B94" s="7"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="10"/>
+      <c r="B95" s="7"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="10"/>
+      <c r="B96" s="7"/>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="10"/>
+      <c r="B97" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
